--- a/12_家計簿.xlsx
+++ b/12_家計簿.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBE188-AB47-4F4C-A1B5-C22A14C50B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3948" yWindow="792" windowWidth="17280" windowHeight="10872" xr2:uid="{D6B6E4D2-D087-4853-BB3F-C46266F51FA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId1"/>
+    <sheet name="2月" sheetId="5" r:id="rId2"/>
+    <sheet name="3月" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月'!$B$6:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月'!$B$6:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3月'!$B$6:$F$17</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +39,275 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>am</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+全部よこしなさい！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+来週から飯全部納豆な！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+来週から飯全部もやしだもやし！
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>am</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+全部よこしなさい！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+来週から飯全部納豆な！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+来週から飯全部もやしだもやし！
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>am</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+全部よこしなさい！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+来週から飯全部納豆な！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>am:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+来週から飯全部もやしだもやし！
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>簡単家計簿</t>
     <rPh sb="0" eb="2">
@@ -193,8 +466,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +518,21 @@
       <sz val="16"/>
       <color theme="4"/>
       <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -658,12 +946,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="パーセント 2" xfId="3" xr:uid="{3FAF9B20-DC5E-4174-9CCC-65CF0FDA802F}"/>
-    <cellStyle name="桁区切り 2" xfId="2" xr:uid="{FE809291-7737-4431-991A-6A07B979C654}"/>
+    <cellStyle name="パーセント 2" xfId="3"/>
+    <cellStyle name="桁区切り 2" xfId="2"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{52165456-CD3C-4F14-8103-F9DB8CB4953E}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -983,274 +1291,775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F1C0F7-2AD3-456A-91DC-FF090763BC1D}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="1"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="7">
+    <row r="4" spans="2:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="7">
         <v>200000</v>
       </c>
-      <c r="B4" s="8">
-        <f>SUM(C7:C17)</f>
+      <c r="C4" s="8">
+        <f>SUM(D7:D17)</f>
         <v>165910</v>
       </c>
-      <c r="C4" s="9">
-        <f>A4-B4</f>
+      <c r="D4" s="9">
+        <f>B4-C4</f>
         <v>34090</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="11">
+      <c r="E4" s="2"/>
+      <c r="F4" s="11">
         <v>160000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2"/>
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="24" t="s">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="27">
+    <row r="7" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="27">
         <v>45292</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>35000</v>
       </c>
-      <c r="D7" s="5">
-        <f>C7</f>
+      <c r="E7" s="5">
+        <f>D7</f>
         <v>35000</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="28">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="28">
         <v>45293</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>20000</v>
       </c>
-      <c r="D8" s="6">
-        <f>D7+C8</f>
+      <c r="E8" s="6">
+        <f>E7+D8</f>
         <v>55000</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="28">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="28">
         <v>45293</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <v>3650</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" ref="D9:D17" si="0">D8+C9</f>
+      <c r="E9" s="6">
+        <f t="shared" ref="E9:E16" si="0">E8+D9</f>
         <v>58650</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="28">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="28">
         <v>45296</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>3000</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>61650</v>
       </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="28">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="28">
         <v>45299</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>800</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>62450</v>
       </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="28">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="28">
         <v>45299</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <v>4000</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
+      <c r="E12" s="6">
+        <f>E11+D12</f>
         <v>66450</v>
       </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="28">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="28">
         <v>45301</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="6">
         <v>4200</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>70650</v>
       </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="29">
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="29">
         <v>45302</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
+      <c r="D14" s="14">
         <v>1800</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>72450</v>
       </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="30">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="30">
         <v>45304</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="12">
+      <c r="D15" s="12">
         <v>12800</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>85250</v>
       </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="31">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="31">
         <v>45306</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13">
+      <c r="D16" s="13">
         <v>75400</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>160650</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="32">
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="32">
         <v>45309</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18">
+      <c r="D17" s="18">
         <v>5260</v>
       </c>
-      <c r="D17" s="19">
-        <f t="shared" si="0"/>
+      <c r="E17" s="19">
+        <f>E16+D17</f>
         <v>165910</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
   </sheetData>
+  <autoFilter ref="B6:F17"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D7:D17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$E$4</formula>
+  <conditionalFormatting sqref="E7:E17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$F$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <f>SUM(D7:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="27"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="28"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <f>E7+D8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="28"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <f t="shared" ref="E9:E16" si="0">E8+D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="28"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="28"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="28"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <f>E11+D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="28"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="29"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="30"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="31"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="32"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19">
+        <f>E16+D17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:F17"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E7:E17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$F$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="7">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="8">
+        <f>SUM(D7:D17)</f>
+        <v>165910</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B4-C4</f>
+        <v>34090</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="11">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="27">
+        <v>45292</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7</f>
+        <v>35000</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="28">
+        <v>45293</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="6">
+        <f>E7+D8</f>
+        <v>55000</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="28">
+        <v>45293</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3650</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" ref="E9:E16" si="0">E8+D9</f>
+        <v>58650</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="28">
+        <v>45296</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>61650</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="28">
+        <v>45299</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6">
+        <v>800</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>62450</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="28">
+        <v>45299</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="6">
+        <f>E11+D12</f>
+        <v>66450</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="28">
+        <v>45301</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4200</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>70650</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="29">
+        <v>45302</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>72450</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="30">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12">
+        <v>12800</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>85250</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="31">
+        <v>45306</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13">
+        <v>75400</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>160650</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="32">
+        <v>45309</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18">
+        <v>5260</v>
+      </c>
+      <c r="E17" s="19">
+        <f>E16+D17</f>
+        <v>165910</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:F17"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E7:E17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$F$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>